--- a/appendix/mean_4ds_precision_macro.xlsx
+++ b/appendix/mean_4ds_precision_macro.xlsx
@@ -525,7 +525,7 @@
         <v>0.462</v>
       </c>
       <c r="G3" t="n">
-        <v>0.482</v>
+        <v>0.478</v>
       </c>
       <c r="H3" t="n">
         <v>0.526</v>

--- a/appendix/mean_4ds_precision_macro.xlsx
+++ b/appendix/mean_4ds_precision_macro.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.274</v>
+        <v>0.301</v>
       </c>
       <c r="D5" t="n">
-        <v>0.411</v>
+        <v>0.431</v>
       </c>
       <c r="E5" t="n">
-        <v>0.46</v>
+        <v>0.477</v>
       </c>
       <c r="F5" t="n">
-        <v>0.537</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.549</v>
+        <v>0.57</v>
       </c>
       <c r="H5" t="n">
-        <v>0.589</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -618,29 +618,29 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.296</v>
+        <v>0.301</v>
       </c>
       <c r="D7" t="n">
         <v>0.439</v>
       </c>
       <c r="E7" t="n">
-        <v>0.467</v>
+        <v>0.477</v>
       </c>
       <c r="F7" t="n">
-        <v>0.54</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>0.574</v>
       </c>
       <c r="H7" t="n">
-        <v>0.589</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.258</v>
+        <v>0.279</v>
       </c>
       <c r="D8" t="n">
-        <v>0.498</v>
+        <v>0.507</v>
       </c>
       <c r="E8" t="n">
-        <v>0.551</v>
+        <v>0.553</v>
       </c>
       <c r="F8" t="n">
-        <v>0.611</v>
+        <v>0.601</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636</v>
+        <v>0.634</v>
       </c>
       <c r="H8" t="n">
-        <v>0.647</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.421</v>
+        <v>0.398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.427</v>
+        <v>0.448</v>
       </c>
       <c r="D9" t="n">
-        <v>0.507</v>
+        <v>0.529</v>
       </c>
       <c r="E9" t="n">
-        <v>0.532</v>
+        <v>0.542</v>
       </c>
       <c r="F9" t="n">
-        <v>0.553</v>
+        <v>0.552</v>
       </c>
       <c r="G9" t="n">
-        <v>0.581</v>
+        <v>0.577</v>
       </c>
       <c r="H9" t="n">
-        <v>0.596</v>
+        <v>0.592</v>
       </c>
     </row>
   </sheetData>
